--- a/master rebuilding stream list.xlsx
+++ b/master rebuilding stream list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andy1\Documents\R\PSF HATCHERY REVIEW\new new analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andy1\Documents\R\rebuilding_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A055B7D9-863A-4673-BBAD-8AE376DFB91D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1520F25C-1072-4AB8-A0E8-C5FF12C034B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11640" windowHeight="7965" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11640" windowHeight="7970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master rebuilding stream list" sheetId="1" r:id="rId1"/>
@@ -389,9 +389,6 @@
     <t>Bedwell River</t>
   </si>
   <si>
-    <t>52318,52328,45190</t>
-  </si>
-  <si>
     <t>CK-031</t>
   </si>
   <si>
@@ -941,9 +938,6 @@
     <t>nuseds.link</t>
   </si>
   <si>
-    <t>BEDWELL RIVER,URSUS CREEK,BEDWELL SYSTEM</t>
-  </si>
-  <si>
     <t>40253,40293,40313</t>
   </si>
   <si>
@@ -1143,6 +1137,12 @@
   </si>
   <si>
     <t>San Juan R</t>
+  </si>
+  <si>
+    <t>BEDWELL SYSTEM,BEDWELL RIVER,URSUS CREEK</t>
+  </si>
+  <si>
+    <t>45190,52312,52324</t>
   </si>
 </sst>
 </file>
@@ -2025,17 +2025,17 @@
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="29.1796875" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -3099,25 +3099,25 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" customWidth="1"/>
-    <col min="13" max="13" width="27.140625" customWidth="1"/>
-    <col min="14" max="16" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" customWidth="1"/>
+    <col min="7" max="7" width="7.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34.453125" customWidth="1"/>
+    <col min="9" max="10" width="12.7265625" customWidth="1"/>
+    <col min="11" max="11" width="7.26953125" customWidth="1"/>
+    <col min="12" max="12" width="17.1796875" customWidth="1"/>
+    <col min="13" max="13" width="27.1796875" customWidth="1"/>
+    <col min="14" max="16" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3134,37 +3134,37 @@
         <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I1" t="s">
         <v>114</v>
       </c>
       <c r="J1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Q1" t="s">
         <v>106</v>
@@ -3173,10 +3173,10 @@
         <v>107</v>
       </c>
       <c r="S1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>113</v>
       </c>
       <c r="I2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J2" t="s">
         <v>115</v>
@@ -3214,7 +3214,7 @@
         <v>111</v>
       </c>
       <c r="M2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O2" t="s">
         <v>104</v>
@@ -3229,7 +3229,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -3246,34 +3246,34 @@
         <v>104</v>
       </c>
       <c r="F3" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" t="s">
         <v>122</v>
       </c>
-      <c r="H3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J3" t="s">
-        <v>123</v>
-      </c>
       <c r="K3" t="s">
         <v>104</v>
       </c>
       <c r="L3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O3" t="s">
         <v>104</v>
       </c>
       <c r="P3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="Q3" t="s">
         <v>104</v>
@@ -3282,15 +3282,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -3299,51 +3299,51 @@
         <v>104</v>
       </c>
       <c r="F4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="H4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" t="s">
         <v>130</v>
       </c>
-      <c r="I4" t="s">
-        <v>131</v>
-      </c>
       <c r="J4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K4" t="s">
         <v>104</v>
       </c>
       <c r="L4" t="s">
+        <v>345</v>
+      </c>
+      <c r="M4" t="s">
+        <v>346</v>
+      </c>
+      <c r="O4" t="s">
+        <v>104</v>
+      </c>
+      <c r="P4" t="s">
         <v>347</v>
       </c>
-      <c r="M4" t="s">
+      <c r="Q4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R4" t="s">
         <v>348</v>
       </c>
-      <c r="O4" t="s">
-        <v>104</v>
-      </c>
-      <c r="P4" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>104</v>
-      </c>
-      <c r="R4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>99</v>
       </c>
       <c r="B5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" t="s">
         <v>137</v>
-      </c>
-      <c r="C5" t="s">
-        <v>138</v>
       </c>
       <c r="D5">
         <v>13</v>
@@ -3352,51 +3352,51 @@
         <v>104</v>
       </c>
       <c r="F5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" t="s">
         <v>140</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>141</v>
       </c>
-      <c r="I5" t="s">
-        <v>142</v>
-      </c>
       <c r="J5" t="s">
+        <v>242</v>
+      </c>
+      <c r="K5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5" t="s">
+        <v>349</v>
+      </c>
+      <c r="M5" t="s">
         <v>243</v>
       </c>
-      <c r="K5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L5" t="s">
-        <v>351</v>
-      </c>
-      <c r="M5" t="s">
-        <v>244</v>
-      </c>
       <c r="O5" t="s">
         <v>104</v>
       </c>
       <c r="P5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="Q5" t="s">
         <v>104</v>
       </c>
       <c r="R5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6">
         <v>28</v>
@@ -3408,13 +3408,13 @@
         <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H6" t="s">
         <v>113</v>
       </c>
       <c r="I6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J6" t="s">
         <v>115</v>
@@ -3426,7 +3426,7 @@
         <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O6" t="s">
         <v>104</v>
@@ -3438,18 +3438,18 @@
         <v>104</v>
       </c>
       <c r="R6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D7">
         <v>17</v>
@@ -3461,16 +3461,16 @@
         <v>39</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" t="s">
         <v>146</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>147</v>
       </c>
-      <c r="I7" t="s">
-        <v>148</v>
-      </c>
       <c r="J7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K7" t="s">
         <v>104</v>
@@ -3479,7 +3479,7 @@
         <v>38</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O7" t="s">
         <v>104</v>
@@ -3491,10 +3491,10 @@
         <v>104</v>
       </c>
       <c r="R7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -3520,10 +3520,10 @@
         <v>120</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K8" t="s">
         <v>104</v>
@@ -3532,7 +3532,7 @@
         <v>101</v>
       </c>
       <c r="M8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O8" t="s">
         <v>104</v>
@@ -3547,7 +3547,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D9">
         <v>29</v>
@@ -3564,34 +3564,34 @@
         <v>104</v>
       </c>
       <c r="F9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" t="s">
         <v>151</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>152</v>
       </c>
-      <c r="I9" t="s">
-        <v>153</v>
-      </c>
       <c r="J9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K9" t="s">
         <v>104</v>
       </c>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>99</v>
       </c>
       <c r="B10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" t="s">
         <v>157</v>
-      </c>
-      <c r="C10" t="s">
-        <v>158</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -3600,40 +3600,40 @@
         <v>104</v>
       </c>
       <c r="F10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" t="s">
         <v>160</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>161</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>162</v>
       </c>
-      <c r="J10" t="s">
-        <v>163</v>
-      </c>
       <c r="K10" t="s">
         <v>104</v>
       </c>
       <c r="L10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="N10">
         <v>1988</v>
       </c>
       <c r="O10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D11">
         <v>23</v>
@@ -3650,37 +3650,37 @@
         <v>104</v>
       </c>
       <c r="F11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="H11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
         <v>104</v>
       </c>
       <c r="L11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N11">
         <v>1997</v>
       </c>
       <c r="O11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -3706,10 +3706,10 @@
         <v>119</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
         <v>104</v>
@@ -3718,7 +3718,7 @@
         <v>108</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O12" t="s">
         <v>104</v>
@@ -3733,7 +3733,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13">
         <v>24</v>
@@ -3750,63 +3750,63 @@
         <v>104</v>
       </c>
       <c r="F13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" t="s">
         <v>169</v>
       </c>
-      <c r="H13" t="s">
-        <v>129</v>
-      </c>
-      <c r="I13" t="s">
-        <v>135</v>
-      </c>
-      <c r="J13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K13" t="s">
-        <v>104</v>
-      </c>
-      <c r="L13" t="s">
-        <v>170</v>
-      </c>
       <c r="M13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N13">
         <v>1990</v>
       </c>
       <c r="O13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q13" t="s">
         <v>104</v>
       </c>
       <c r="R13" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>99</v>
       </c>
       <c r="B14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" t="s">
         <v>171</v>
-      </c>
-      <c r="C14" t="s">
-        <v>172</v>
       </c>
       <c r="D14">
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H14" t="s">
         <v>113</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
         <v>115</v>
@@ -3815,24 +3815,24 @@
         <v>104</v>
       </c>
       <c r="L14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D15">
         <v>17</v>
@@ -3841,43 +3841,43 @@
         <v>104</v>
       </c>
       <c r="F15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" t="s">
         <v>176</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
+        <v>181</v>
+      </c>
+      <c r="J15" t="s">
         <v>177</v>
       </c>
-      <c r="I15" t="s">
-        <v>182</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" t="s">
         <v>178</v>
       </c>
-      <c r="K15" t="s">
-        <v>104</v>
-      </c>
-      <c r="L15" t="s">
-        <v>179</v>
-      </c>
       <c r="M15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N15">
         <v>1998</v>
       </c>
       <c r="O15" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>104</v>
+      </c>
+      <c r="R15" t="s">
         <v>173</v>
       </c>
-      <c r="Q15" t="s">
-        <v>104</v>
-      </c>
-      <c r="R15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D16">
         <v>24</v>
@@ -3894,48 +3894,48 @@
         <v>104</v>
       </c>
       <c r="F16" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" t="s">
         <v>190</v>
       </c>
-      <c r="H16" t="s">
-        <v>129</v>
-      </c>
-      <c r="I16" t="s">
-        <v>135</v>
-      </c>
-      <c r="J16" t="s">
-        <v>123</v>
-      </c>
-      <c r="K16" t="s">
-        <v>104</v>
-      </c>
-      <c r="L16" t="s">
-        <v>191</v>
-      </c>
       <c r="M16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q16" t="s">
         <v>104</v>
       </c>
       <c r="R16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D17">
         <v>9</v>
@@ -3944,40 +3944,40 @@
         <v>104</v>
       </c>
       <c r="F17" t="s">
+        <v>192</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="H17" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" t="s">
         <v>161</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>162</v>
       </c>
-      <c r="J17" t="s">
-        <v>163</v>
-      </c>
       <c r="K17" t="s">
         <v>104</v>
       </c>
       <c r="L17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="M17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="N17">
         <v>1986</v>
       </c>
       <c r="O17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D18">
         <v>25</v>
@@ -3994,51 +3994,51 @@
         <v>104</v>
       </c>
       <c r="F18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H18" t="s">
         <v>197</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>198</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>199</v>
       </c>
-      <c r="J18" t="s">
-        <v>200</v>
-      </c>
       <c r="K18" t="s">
         <v>104</v>
       </c>
       <c r="L18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="N18">
         <v>1984</v>
       </c>
       <c r="O18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q18" t="s">
         <v>104</v>
       </c>
       <c r="R18" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D19">
         <v>28</v>
@@ -4047,16 +4047,16 @@
         <v>104</v>
       </c>
       <c r="F19" t="s">
+        <v>206</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="H19" t="s">
         <v>113</v>
       </c>
       <c r="I19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J19" t="s">
         <v>115</v>
@@ -4065,25 +4065,25 @@
         <v>104</v>
       </c>
       <c r="L19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O19" t="s">
         <v>104</v>
       </c>
       <c r="P19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q19" t="s">
         <v>104</v>
       </c>
       <c r="R19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D20">
         <v>29</v>
@@ -4100,28 +4100,28 @@
         <v>104</v>
       </c>
       <c r="F20" t="s">
+        <v>209</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" t="s">
         <v>211</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>212</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>213</v>
       </c>
-      <c r="J20" t="s">
-        <v>214</v>
-      </c>
       <c r="K20" t="s">
         <v>104</v>
       </c>
       <c r="L20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="N20">
         <v>1996</v>
@@ -4130,16 +4130,16 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q20" t="s">
         <v>104</v>
       </c>
       <c r="R20" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D21">
         <v>25</v>
@@ -4156,42 +4156,42 @@
         <v>104</v>
       </c>
       <c r="F21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H21" t="s">
+        <v>197</v>
+      </c>
+      <c r="I21" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L21" t="s">
         <v>220</v>
       </c>
-      <c r="H21" t="s">
-        <v>198</v>
-      </c>
-      <c r="I21" t="s">
-        <v>199</v>
-      </c>
-      <c r="J21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K21" t="s">
-        <v>104</v>
-      </c>
-      <c r="L21" t="s">
-        <v>221</v>
-      </c>
       <c r="O21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D22">
         <v>17</v>
@@ -4200,28 +4200,28 @@
         <v>104</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H22" t="s">
         <v>185</v>
       </c>
-      <c r="H22" t="s">
-        <v>186</v>
-      </c>
       <c r="I22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" t="s">
         <v>183</v>
       </c>
-      <c r="J22" t="s">
-        <v>184</v>
-      </c>
       <c r="K22" t="s">
         <v>104</v>
       </c>
       <c r="L22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N22">
         <v>1981</v>
@@ -4230,27 +4230,27 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="Q22" t="s">
         <v>104</v>
       </c>
       <c r="R22" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="S22" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D23">
         <v>17</v>
@@ -4259,46 +4259,46 @@
         <v>104</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H23" t="s">
+        <v>146</v>
+      </c>
+      <c r="I23" t="s">
         <v>147</v>
       </c>
-      <c r="I23" t="s">
-        <v>148</v>
-      </c>
       <c r="J23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K23" t="s">
         <v>104</v>
       </c>
       <c r="L23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O23" t="s">
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q23" t="s">
         <v>104</v>
       </c>
       <c r="R23" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="S23" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D24">
         <v>29</v>
@@ -4315,40 +4315,40 @@
         <v>104</v>
       </c>
       <c r="F24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H24" t="s">
         <v>120</v>
       </c>
       <c r="I24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K24" t="s">
         <v>104</v>
       </c>
       <c r="L24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N24">
         <v>2014</v>
       </c>
       <c r="O24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>99</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D25">
         <v>29</v>
@@ -4365,28 +4365,28 @@
         <v>104</v>
       </c>
       <c r="F25" t="s">
+        <v>235</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="H25" t="s">
         <v>119</v>
       </c>
       <c r="I25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K25" t="s">
         <v>104</v>
       </c>
       <c r="L25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N25">
         <v>1985</v>
@@ -4395,24 +4395,24 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q25" t="s">
         <v>104</v>
       </c>
       <c r="R25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D26">
         <v>12</v>
@@ -4424,45 +4424,45 @@
         <v>77</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" t="s">
+        <v>141</v>
+      </c>
+      <c r="J26" t="s">
         <v>242</v>
       </c>
-      <c r="H26" t="s">
-        <v>141</v>
-      </c>
-      <c r="I26" t="s">
-        <v>142</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
+        <v>104</v>
+      </c>
+      <c r="L26" t="s">
+        <v>244</v>
+      </c>
+      <c r="M26" t="s">
         <v>243</v>
       </c>
-      <c r="K26" t="s">
-        <v>104</v>
-      </c>
-      <c r="L26" t="s">
-        <v>245</v>
-      </c>
-      <c r="M26" t="s">
-        <v>244</v>
-      </c>
       <c r="O26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q26" t="s">
         <v>104</v>
       </c>
       <c r="R26" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D27">
         <v>8</v>
@@ -4471,51 +4471,51 @@
         <v>104</v>
       </c>
       <c r="F27" t="s">
+        <v>249</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" t="s">
+        <v>252</v>
+      </c>
+      <c r="I27" t="s">
+        <v>247</v>
+      </c>
+      <c r="J27" t="s">
+        <v>248</v>
+      </c>
+      <c r="K27" t="s">
+        <v>104</v>
+      </c>
+      <c r="L27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M27" t="s">
+        <v>245</v>
+      </c>
+      <c r="O27" t="s">
+        <v>104</v>
+      </c>
+      <c r="P27" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>104</v>
+      </c>
+      <c r="R27" t="s">
         <v>251</v>
       </c>
-      <c r="H27" t="s">
-        <v>253</v>
-      </c>
-      <c r="I27" t="s">
-        <v>248</v>
-      </c>
-      <c r="J27" t="s">
-        <v>249</v>
-      </c>
-      <c r="K27" t="s">
-        <v>104</v>
-      </c>
-      <c r="L27" t="s">
-        <v>247</v>
-      </c>
-      <c r="M27" t="s">
-        <v>246</v>
-      </c>
-      <c r="O27" t="s">
-        <v>104</v>
-      </c>
-      <c r="P27" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>104</v>
-      </c>
-      <c r="R27" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D28">
         <v>14</v>
@@ -4527,37 +4527,37 @@
         <v>79</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H28" t="s">
+        <v>176</v>
+      </c>
+      <c r="I28" t="s">
+        <v>181</v>
+      </c>
+      <c r="J28" t="s">
+        <v>177</v>
+      </c>
+      <c r="K28" t="s">
+        <v>104</v>
+      </c>
+      <c r="L28" t="s">
+        <v>256</v>
+      </c>
+      <c r="M28" t="s">
         <v>255</v>
       </c>
-      <c r="H28" t="s">
-        <v>177</v>
-      </c>
-      <c r="I28" t="s">
-        <v>182</v>
-      </c>
-      <c r="J28" t="s">
-        <v>178</v>
-      </c>
-      <c r="K28" t="s">
-        <v>104</v>
-      </c>
-      <c r="L28" t="s">
-        <v>257</v>
-      </c>
-      <c r="M28" t="s">
-        <v>256</v>
-      </c>
       <c r="O28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q28" t="s">
         <v>104</v>
       </c>
       <c r="R28" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D29">
         <v>29</v>
@@ -4574,42 +4574,42 @@
         <v>104</v>
       </c>
       <c r="F29" t="s">
+        <v>259</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H29" t="s">
         <v>260</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="I29" t="s">
+        <v>261</v>
+      </c>
+      <c r="J29" t="s">
+        <v>262</v>
+      </c>
+      <c r="K29" t="s">
+        <v>172</v>
+      </c>
+      <c r="O29" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>104</v>
+      </c>
+      <c r="R29" t="s">
         <v>258</v>
       </c>
-      <c r="H29" t="s">
-        <v>261</v>
-      </c>
-      <c r="I29" t="s">
-        <v>262</v>
-      </c>
-      <c r="J29" t="s">
-        <v>263</v>
-      </c>
-      <c r="K29" t="s">
-        <v>173</v>
-      </c>
-      <c r="O29" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>104</v>
-      </c>
-      <c r="R29" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D30">
         <v>8</v>
@@ -4618,51 +4618,51 @@
         <v>104</v>
       </c>
       <c r="F30" t="s">
+        <v>270</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H30" t="s">
+        <v>252</v>
+      </c>
+      <c r="I30" t="s">
+        <v>247</v>
+      </c>
+      <c r="J30" t="s">
+        <v>248</v>
+      </c>
+      <c r="K30" t="s">
+        <v>104</v>
+      </c>
+      <c r="L30" t="s">
+        <v>272</v>
+      </c>
+      <c r="M30" t="s">
+        <v>245</v>
+      </c>
+      <c r="O30" t="s">
+        <v>104</v>
+      </c>
+      <c r="P30" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>104</v>
+      </c>
+      <c r="R30" t="s">
         <v>271</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="H30" t="s">
-        <v>253</v>
-      </c>
-      <c r="I30" t="s">
-        <v>248</v>
-      </c>
-      <c r="J30" t="s">
-        <v>249</v>
-      </c>
-      <c r="K30" t="s">
-        <v>104</v>
-      </c>
-      <c r="L30" t="s">
-        <v>273</v>
-      </c>
-      <c r="M30" t="s">
-        <v>246</v>
-      </c>
-      <c r="O30" t="s">
-        <v>104</v>
-      </c>
-      <c r="P30" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>104</v>
-      </c>
-      <c r="R30" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D31">
         <v>13</v>
@@ -4671,40 +4671,40 @@
         <v>104</v>
       </c>
       <c r="F31" t="s">
+        <v>274</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="H31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K31" t="s">
         <v>104</v>
       </c>
       <c r="L31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q31" t="s">
         <v>104</v>
       </c>
       <c r="R31" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>99</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D32">
         <v>29</v>
@@ -4721,43 +4721,43 @@
         <v>104</v>
       </c>
       <c r="F32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I32" t="s">
+        <v>279</v>
+      </c>
+      <c r="J32" t="s">
         <v>280</v>
       </c>
-      <c r="J32" t="s">
-        <v>281</v>
-      </c>
       <c r="K32" t="s">
         <v>104</v>
       </c>
       <c r="L32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O32" t="s">
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q32" t="s">
         <v>104</v>
       </c>
       <c r="R32" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D33">
         <v>20</v>
@@ -4774,43 +4774,43 @@
         <v>104</v>
       </c>
       <c r="F33" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K33" t="s">
         <v>104</v>
       </c>
       <c r="L33" t="s">
+        <v>289</v>
+      </c>
+      <c r="M33" t="s">
         <v>290</v>
       </c>
-      <c r="M33" t="s">
-        <v>291</v>
-      </c>
       <c r="O33" t="s">
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Q33" t="s">
         <v>104</v>
       </c>
       <c r="R33" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D34">
         <v>23</v>
@@ -4827,51 +4827,51 @@
         <v>104</v>
       </c>
       <c r="F34" t="s">
+        <v>286</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" t="s">
+        <v>128</v>
+      </c>
+      <c r="I34" t="s">
         <v>288</v>
       </c>
-      <c r="H34" t="s">
-        <v>129</v>
-      </c>
-      <c r="I34" t="s">
-        <v>289</v>
-      </c>
       <c r="J34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K34" t="s">
         <v>104</v>
       </c>
       <c r="L34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O34" t="s">
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="Q34" t="s">
         <v>104</v>
       </c>
       <c r="R34" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D35">
         <v>28</v>
@@ -4880,16 +4880,16 @@
         <v>104</v>
       </c>
       <c r="F35" t="s">
+        <v>265</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="H35" t="s">
         <v>113</v>
       </c>
       <c r="I35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J35" t="s">
         <v>115</v>
@@ -4898,25 +4898,25 @@
         <v>104</v>
       </c>
       <c r="L35" t="s">
+        <v>267</v>
+      </c>
+      <c r="M35" t="s">
         <v>268</v>
       </c>
-      <c r="M35" t="s">
-        <v>269</v>
-      </c>
       <c r="O35" t="s">
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q35" t="s">
         <v>104</v>
       </c>
       <c r="R35" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>99</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D36">
         <v>29</v>
@@ -4933,43 +4933,43 @@
         <v>104</v>
       </c>
       <c r="F36" t="s">
+        <v>293</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" t="s">
         <v>295</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>296</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>297</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
+        <v>104</v>
+      </c>
+      <c r="L36" t="s">
         <v>298</v>
       </c>
-      <c r="K36" t="s">
-        <v>104</v>
-      </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>299</v>
       </c>
-      <c r="M36" t="s">
-        <v>300</v>
-      </c>
       <c r="O36" t="s">
         <v>104</v>
       </c>
       <c r="P36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q36" t="s">
         <v>104</v>
       </c>
       <c r="R36" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D37">
         <v>22</v>
@@ -4986,43 +4986,43 @@
         <v>104</v>
       </c>
       <c r="F37" t="s">
+        <v>301</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" t="s">
+        <v>128</v>
+      </c>
+      <c r="I37" t="s">
+        <v>134</v>
+      </c>
+      <c r="J37" t="s">
+        <v>122</v>
+      </c>
+      <c r="K37" t="s">
+        <v>104</v>
+      </c>
+      <c r="L37" t="s">
         <v>303</v>
       </c>
-      <c r="H37" t="s">
-        <v>129</v>
-      </c>
-      <c r="I37" t="s">
-        <v>135</v>
-      </c>
-      <c r="J37" t="s">
-        <v>123</v>
-      </c>
-      <c r="K37" t="s">
-        <v>104</v>
-      </c>
-      <c r="L37" t="s">
-        <v>304</v>
-      </c>
       <c r="M37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O37" t="s">
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="Q37" t="s">
         <v>104</v>
       </c>
       <c r="R37" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>99</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D38">
         <v>29</v>
@@ -5039,51 +5039,51 @@
         <v>104</v>
       </c>
       <c r="F38" t="s">
+        <v>308</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="H38" t="s">
         <v>119</v>
       </c>
       <c r="I38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K38" t="s">
         <v>104</v>
       </c>
       <c r="L38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O38" t="s">
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Q38" t="s">
         <v>104</v>
       </c>
       <c r="R38" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C39" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D39">
         <v>28</v>
@@ -5092,16 +5092,16 @@
         <v>104</v>
       </c>
       <c r="F39" t="s">
+        <v>314</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="H39" t="s">
         <v>113</v>
       </c>
       <c r="I39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J39" t="s">
         <v>115</v>
@@ -5110,25 +5110,25 @@
         <v>104</v>
       </c>
       <c r="L39" t="s">
+        <v>315</v>
+      </c>
+      <c r="M39" t="s">
+        <v>268</v>
+      </c>
+      <c r="O39" t="s">
+        <v>104</v>
+      </c>
+      <c r="P39" t="s">
         <v>317</v>
       </c>
-      <c r="M39" t="s">
-        <v>269</v>
-      </c>
-      <c r="O39" t="s">
-        <v>104</v>
-      </c>
-      <c r="P39" t="s">
-        <v>319</v>
-      </c>
       <c r="Q39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D40">
         <v>25</v>
@@ -5145,40 +5145,40 @@
         <v>104</v>
       </c>
       <c r="F40" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H40" t="s">
+        <v>197</v>
+      </c>
+      <c r="I40" t="s">
+        <v>198</v>
+      </c>
+      <c r="J40" t="s">
+        <v>199</v>
+      </c>
+      <c r="K40" t="s">
+        <v>104</v>
+      </c>
+      <c r="L40" t="s">
+        <v>320</v>
+      </c>
+      <c r="M40" t="s">
         <v>321</v>
       </c>
-      <c r="H40" t="s">
-        <v>198</v>
-      </c>
-      <c r="I40" t="s">
-        <v>199</v>
-      </c>
-      <c r="J40" t="s">
-        <v>200</v>
-      </c>
-      <c r="K40" t="s">
-        <v>104</v>
-      </c>
-      <c r="L40" t="s">
-        <v>322</v>
-      </c>
-      <c r="M40" t="s">
-        <v>323</v>
-      </c>
       <c r="O40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q40" t="s">
         <v>104</v>
       </c>
       <c r="R40" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>99</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D41">
         <v>25</v>
@@ -5195,34 +5195,34 @@
         <v>104</v>
       </c>
       <c r="F41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H41" t="s">
+        <v>197</v>
+      </c>
+      <c r="I41" t="s">
         <v>198</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>199</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
+        <v>104</v>
+      </c>
+      <c r="L41" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>104</v>
+      </c>
+      <c r="R41" t="s">
         <v>200</v>
       </c>
-      <c r="K41" t="s">
-        <v>104</v>
-      </c>
-      <c r="L41" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>104</v>
-      </c>
-      <c r="R41" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>99</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D42">
         <v>25</v>
@@ -5242,37 +5242,37 @@
         <v>93</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H42" t="s">
+        <v>197</v>
+      </c>
+      <c r="I42" t="s">
         <v>198</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>199</v>
       </c>
-      <c r="J42" t="s">
-        <v>200</v>
-      </c>
       <c r="K42" t="s">
         <v>104</v>
       </c>
       <c r="L42" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M42" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q42" t="s">
         <v>104</v>
       </c>
       <c r="R42" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>99</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D43">
         <v>23</v>
@@ -5289,40 +5289,40 @@
         <v>104</v>
       </c>
       <c r="F43" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K43" t="s">
         <v>104</v>
       </c>
       <c r="L43" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="M43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q43" t="s">
         <v>104</v>
       </c>
       <c r="R43" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>99</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D44">
         <v>24</v>
@@ -5342,45 +5342,45 @@
         <v>95</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K44" t="s">
         <v>104</v>
       </c>
       <c r="L44" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q44" t="s">
         <v>104</v>
       </c>
       <c r="R44" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>99</v>
       </c>
       <c r="B45" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C45" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -5389,37 +5389,37 @@
         <v>104</v>
       </c>
       <c r="F45" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H45" t="s">
+        <v>334</v>
+      </c>
+      <c r="I45" t="s">
         <v>335</v>
       </c>
-      <c r="H45" t="s">
+      <c r="J45" t="s">
         <v>336</v>
       </c>
-      <c r="I45" t="s">
-        <v>337</v>
-      </c>
-      <c r="J45" t="s">
-        <v>338</v>
-      </c>
       <c r="K45" t="s">
         <v>104</v>
       </c>
       <c r="L45" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M45" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="O45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q45" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -5427,37 +5427,37 @@
         <v>82</v>
       </c>
       <c r="C46" t="s">
+        <v>356</v>
+      </c>
+      <c r="E46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" t="s">
+        <v>357</v>
+      </c>
+      <c r="I46" t="s">
+        <v>198</v>
+      </c>
+      <c r="J46" t="s">
+        <v>199</v>
+      </c>
+      <c r="K46" t="s">
+        <v>104</v>
+      </c>
+      <c r="L46" t="s">
         <v>358</v>
       </c>
-      <c r="E46" t="s">
-        <v>104</v>
-      </c>
-      <c r="F46" t="s">
-        <v>359</v>
-      </c>
-      <c r="I46" t="s">
-        <v>199</v>
-      </c>
-      <c r="J46" t="s">
-        <v>200</v>
-      </c>
-      <c r="K46" t="s">
-        <v>104</v>
-      </c>
-      <c r="L46" t="s">
-        <v>360</v>
-      </c>
       <c r="M46" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q46" t="s">
         <v>104</v>
       </c>
       <c r="R46" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
